--- a/COMPLETEDDEPARTMENT_REPORT.xlsx
+++ b/COMPLETEDDEPARTMENT_REPORT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Total Duration</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Default Total Hours</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Core Skills Percentage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Soft Skills Percentage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Skills Requirement Met</t>
         </is>
       </c>
     </row>
@@ -479,13 +494,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>100</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2" t="n">
+        <v>79</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -503,13 +529,59 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+          <t>Soft</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>100</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>79</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>79</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
